--- a/experiments/ResultTables/public/DSM-to-Cesar №1 comparison results.xlsx
+++ b/experiments/ResultTables/public/DSM-to-Cesar №1 comparison results.xlsx
@@ -14,305 +14,323 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="155">
   <si>
     <t>GS</t>
   </si>
   <si>
+    <t>RFC</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
+  <si>
     <t>SVC</t>
   </si>
   <si>
-    <t>LR</t>
-  </si>
-  <si>
-    <t>RFC</t>
-  </si>
-  <si>
-    <t>KNN</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Robust</t>
+  </si>
+  <si>
+    <t>MinMax</t>
+  </si>
+  <si>
     <t>DSM</t>
   </si>
   <si>
     <t>Cesar1</t>
   </si>
   <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>MinMax</t>
-  </si>
-  <si>
-    <t>Robust</t>
-  </si>
-  <si>
-    <t>0,339</t>
-  </si>
-  <si>
-    <t>0,358</t>
+    <t>0,46</t>
+  </si>
+  <si>
+    <t>0,211</t>
+  </si>
+  <si>
+    <t>0,763</t>
+  </si>
+  <si>
+    <t>0,28</t>
+  </si>
+  <si>
+    <t>0,739</t>
+  </si>
+  <si>
+    <t>0,765</t>
+  </si>
+  <si>
+    <t>0,779</t>
+  </si>
+  <si>
+    <t>0,784</t>
+  </si>
+  <si>
+    <t>0,22</t>
+  </si>
+  <si>
+    <t>0,634</t>
+  </si>
+  <si>
+    <t>0,417</t>
+  </si>
+  <si>
+    <t>0,545</t>
+  </si>
+  <si>
+    <t>0,77</t>
+  </si>
+  <si>
+    <t>0,33</t>
+  </si>
+  <si>
+    <t>0,541</t>
+  </si>
+  <si>
+    <t>0,288</t>
+  </si>
+  <si>
+    <t>0,123</t>
+  </si>
+  <si>
+    <t>0,196</t>
+  </si>
+  <si>
+    <t>0,237</t>
+  </si>
+  <si>
+    <t>0,177</t>
+  </si>
+  <si>
+    <t>0,414</t>
+  </si>
+  <si>
+    <t>0,087</t>
+  </si>
+  <si>
+    <t>0,063</t>
+  </si>
+  <si>
+    <t>0,185</t>
+  </si>
+  <si>
+    <t>0,158</t>
+  </si>
+  <si>
+    <t>0,151</t>
+  </si>
+  <si>
+    <t>0,188</t>
+  </si>
+  <si>
+    <t>0,155</t>
+  </si>
+  <si>
+    <t>0,161</t>
+  </si>
+  <si>
+    <t>0,145</t>
+  </si>
+  <si>
+    <t>0,175</t>
+  </si>
+  <si>
+    <t>0,432</t>
+  </si>
+  <si>
+    <t>0,958</t>
+  </si>
+  <si>
+    <t>0,094</t>
+  </si>
+  <si>
+    <t>0,711</t>
+  </si>
+  <si>
+    <t>0,141</t>
+  </si>
+  <si>
+    <t>0,026</t>
+  </si>
+  <si>
+    <t>0,015</t>
+  </si>
+  <si>
+    <t>0,01</t>
+  </si>
+  <si>
+    <t>0,881</t>
+  </si>
+  <si>
+    <t>0,183</t>
+  </si>
+  <si>
+    <t>0,45</t>
+  </si>
+  <si>
+    <t>0,4</t>
+  </si>
+  <si>
+    <t>0,039</t>
+  </si>
+  <si>
+    <t>0,573</t>
+  </si>
+  <si>
+    <t>0,307</t>
+  </si>
+  <si>
+    <t>0,689</t>
+  </si>
+  <si>
+    <t>0,179</t>
+  </si>
+  <si>
+    <t>0,323</t>
+  </si>
+  <si>
+    <t>0,122</t>
+  </si>
+  <si>
+    <t>0,279</t>
+  </si>
+  <si>
+    <t>0,166</t>
+  </si>
+  <si>
+    <t>0,034</t>
+  </si>
+  <si>
+    <t>0,019</t>
+  </si>
+  <si>
+    <t>0,301</t>
+  </si>
+  <si>
+    <t>0,218</t>
   </si>
   <si>
     <t>0,227</t>
   </si>
   <si>
-    <t>0,41</t>
-  </si>
-  <si>
-    <t>0,293</t>
-  </si>
-  <si>
-    <t>0,709</t>
-  </si>
-  <si>
-    <t>0,554</t>
-  </si>
-  <si>
-    <t>0,6</t>
-  </si>
-  <si>
-    <t>0,483</t>
-  </si>
-  <si>
-    <t>0,166</t>
-  </si>
-  <si>
-    <t>0,714</t>
-  </si>
-  <si>
-    <t>0,434</t>
-  </si>
-  <si>
-    <t>0,68</t>
-  </si>
-  <si>
-    <t>0,348</t>
-  </si>
-  <si>
-    <t>0,539</t>
-  </si>
-  <si>
-    <t>0,357</t>
-  </si>
-  <si>
-    <t>0,057</t>
-  </si>
-  <si>
-    <t>0,066</t>
-  </si>
-  <si>
-    <t>0,079</t>
-  </si>
-  <si>
-    <t>0,05</t>
-  </si>
-  <si>
-    <t>0,087</t>
-  </si>
-  <si>
-    <t>0,022</t>
-  </si>
-  <si>
-    <t>0,063</t>
-  </si>
-  <si>
-    <t>0,043</t>
-  </si>
-  <si>
-    <t>0,039</t>
-  </si>
-  <si>
-    <t>0,102</t>
-  </si>
-  <si>
-    <t>0,027</t>
-  </si>
-  <si>
-    <t>0,049</t>
-  </si>
-  <si>
-    <t>0,046</t>
-  </si>
-  <si>
-    <t>0,037</t>
-  </si>
-  <si>
-    <t>0,023</t>
-  </si>
-  <si>
-    <t>0,06</t>
-  </si>
-  <si>
-    <t>0,402</t>
-  </si>
-  <si>
-    <t>0,374</t>
-  </si>
-  <si>
-    <t>0,603</t>
-  </si>
-  <si>
-    <t>0,274</t>
-  </si>
-  <si>
-    <t>0,679</t>
-  </si>
-  <si>
     <t>0,054</t>
   </si>
   <si>
-    <t>0,238</t>
-  </si>
-  <si>
-    <t>0,288</t>
-  </si>
-  <si>
-    <t>0,196</t>
-  </si>
-  <si>
-    <t>0,875</t>
-  </si>
-  <si>
-    <t>0,064</t>
-  </si>
-  <si>
-    <t>0,24</t>
-  </si>
-  <si>
-    <t>0,094</t>
-  </si>
-  <si>
-    <t>0,2</t>
-  </si>
-  <si>
-    <t>0,335</t>
-  </si>
-  <si>
-    <t>0,099</t>
-  </si>
-  <si>
-    <t>0,111</t>
-  </si>
-  <si>
-    <t>0,139</t>
-  </si>
-  <si>
-    <t>0,083</t>
-  </si>
-  <si>
-    <t>0,152</t>
-  </si>
-  <si>
-    <t>0,031</t>
-  </si>
-  <si>
-    <t>0,095</t>
-  </si>
-  <si>
-    <t>0,073</t>
-  </si>
-  <si>
-    <t>0,182</t>
-  </si>
-  <si>
-    <t>0,036</t>
-  </si>
-  <si>
-    <t>0,08</t>
-  </si>
-  <si>
-    <t>0,059</t>
-  </si>
-  <si>
-    <t>0,062</t>
-  </si>
-  <si>
-    <t>0,101</t>
-  </si>
-  <si>
-    <t>0,332</t>
-  </si>
-  <si>
-    <t>0,356</t>
-  </si>
-  <si>
-    <t>0,181</t>
-  </si>
-  <si>
-    <t>0,427</t>
-  </si>
-  <si>
-    <t>0,245</t>
-  </si>
-  <si>
-    <t>0,789</t>
-  </si>
-  <si>
-    <t>0,593</t>
-  </si>
-  <si>
-    <t>0,638</t>
-  </si>
-  <si>
-    <t>0,519</t>
-  </si>
-  <si>
-    <t>0,793</t>
-  </si>
-  <si>
-    <t>0,458</t>
-  </si>
-  <si>
-    <t>0,751</t>
-  </si>
-  <si>
-    <t>0,366</t>
-  </si>
-  <si>
-    <t>0,359</t>
+    <t>0,243</t>
+  </si>
+  <si>
+    <t>0,168</t>
+  </si>
+  <si>
+    <t>0,275</t>
+  </si>
+  <si>
+    <t>0,464</t>
+  </si>
+  <si>
+    <t>0,025</t>
+  </si>
+  <si>
+    <t>0,929</t>
+  </si>
+  <si>
+    <t>0,172</t>
+  </si>
+  <si>
+    <t>0,888</t>
+  </si>
+  <si>
+    <t>0,949</t>
+  </si>
+  <si>
+    <t>0,969</t>
+  </si>
+  <si>
+    <t>0,976</t>
+  </si>
+  <si>
+    <t>0,052</t>
+  </si>
+  <si>
+    <t>0,748</t>
+  </si>
+  <si>
+    <t>0,405</t>
+  </si>
+  <si>
+    <t>0,576</t>
+  </si>
+  <si>
+    <t>0,951</t>
+  </si>
+  <si>
+    <t>0,268</t>
+  </si>
+  <si>
+    <t>0,592</t>
+  </si>
+  <si>
+    <t>0,187</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>5,0</t>
+  </si>
+  <si>
+    <t>9,0</t>
+  </si>
+  <si>
+    <t>30,0</t>
+  </si>
+  <si>
+    <t>15,0</t>
+  </si>
+  <si>
+    <t>50,0</t>
+  </si>
+  <si>
+    <t>20,0</t>
+  </si>
+  <si>
+    <t>1000000,0</t>
+  </si>
+  <si>
+    <t>10,0</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>100,0</t>
+  </si>
+  <si>
+    <t>3,0</t>
+  </si>
+  <si>
     <t>1,0</t>
   </si>
   <si>
-    <t>100000,0</t>
-  </si>
-  <si>
-    <t>1000,0</t>
-  </si>
-  <si>
-    <t>100,0</t>
-  </si>
-  <si>
-    <t>1000000,0</t>
+    <t>6,0</t>
+  </si>
+  <si>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>poly</t>
   </si>
   <si>
     <t>linear</t>
   </si>
   <si>
-    <t>sigmoid</t>
-  </si>
-  <si>
-    <t>30,0</t>
-  </si>
-  <si>
-    <t>15,0</t>
-  </si>
-  <si>
-    <t>50,0</t>
-  </si>
-  <si>
-    <t>20,0</t>
-  </si>
-  <si>
-    <t>500,0</t>
-  </si>
-  <si>
     <t>experiment index</t>
   </si>
   <si>
@@ -331,6 +349,9 @@
     <t>specter_threshold</t>
   </si>
   <si>
+    <t>signal_scaler</t>
+  </si>
+  <si>
     <t>resampling_number</t>
   </si>
   <si>
@@ -340,9 +361,6 @@
     <t>test_dataset_name</t>
   </si>
   <si>
-    <t>signal_scaler</t>
-  </si>
-  <si>
     <t>Scores: accuracy</t>
   </si>
   <si>
@@ -445,22 +463,22 @@
     <t>Statistics: detrended_fluctuation</t>
   </si>
   <si>
+    <t>Hyperparameters: max_depth</t>
+  </si>
+  <si>
+    <t>Hyperparameters: n_estimators</t>
+  </si>
+  <si>
     <t>Hyperparameters: C</t>
   </si>
   <si>
+    <t>Hyperparameters: n_neighbors</t>
+  </si>
+  <si>
+    <t>Hyperparameters: p</t>
+  </si>
+  <si>
     <t>Hyperparameters: kernel</t>
-  </si>
-  <si>
-    <t>Hyperparameters: max_depth</t>
-  </si>
-  <si>
-    <t>Hyperparameters: n_estimators</t>
-  </si>
-  <si>
-    <t>Hyperparameters: n_neighbors</t>
-  </si>
-  <si>
-    <t>Hyperparameters: p</t>
   </si>
 </sst>
 </file>
@@ -865,10 +883,10 @@
     <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="26.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="24.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="26.28515625" style="1" customWidth="1"/>
     <col min="13" max="13" width="21.7109375" style="1" customWidth="1"/>
@@ -903,164 +921,164 @@
     <col min="42" max="42" width="39.7109375" style="1" customWidth="1"/>
     <col min="43" max="43" width="29.28515625" style="1" customWidth="1"/>
     <col min="44" max="44" width="50.28515625" style="1" customWidth="1"/>
-    <col min="45" max="45" width="27.7109375" style="1" customWidth="1"/>
-    <col min="46" max="46" width="35.28515625" style="1" customWidth="1"/>
-    <col min="47" max="47" width="39.7109375" style="1" customWidth="1"/>
-    <col min="48" max="48" width="44.28515625" style="1" customWidth="1"/>
-    <col min="49" max="49" width="42.7109375" style="1" customWidth="1"/>
-    <col min="50" max="50" width="27.7109375" style="1" customWidth="1"/>
+    <col min="45" max="45" width="39.7109375" style="1" customWidth="1"/>
+    <col min="46" max="46" width="44.28515625" style="1" customWidth="1"/>
+    <col min="47" max="47" width="27.7109375" style="1" customWidth="1"/>
+    <col min="48" max="48" width="42.7109375" style="1" customWidth="1"/>
+    <col min="49" max="49" width="27.7109375" style="1" customWidth="1"/>
+    <col min="50" max="50" width="35.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="2" customFormat="1" ht="22" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AT1" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AU1" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AV1" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AW1" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AX1" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:50">
@@ -1082,17 +1100,14 @@
       <c r="F2" s="1">
         <v>500</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>100</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>11</v>
@@ -1101,40 +1116,40 @@
         <v>27</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>58</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>72</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>5</v>
@@ -1143,7 +1158,7 @@
         <v>5</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>5</v>
@@ -1197,10 +1212,10 @@
         <v>5</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:50">
@@ -1222,17 +1237,14 @@
       <c r="F3" s="1">
         <v>500</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>100</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>12</v>
@@ -1241,40 +1253,40 @@
         <v>28</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>59</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>73</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>5</v>
@@ -1283,7 +1295,7 @@
         <v>5</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>5</v>
@@ -1336,8 +1348,8 @@
       <c r="AR3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AS3" s="1" t="s">
-        <v>88</v>
+      <c r="AU3" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:50">
@@ -1348,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1359,17 +1371,17 @@
       <c r="F4" s="1">
         <v>500</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1">
         <v>100</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>13</v>
@@ -1378,40 +1390,40 @@
         <v>29</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>60</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>74</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>5</v>
@@ -1420,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>5</v>
@@ -1473,8 +1485,11 @@
       <c r="AR4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AS4" s="1" t="s">
-        <v>89</v>
+      <c r="AV4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:50">
@@ -1485,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -1496,14 +1511,14 @@
       <c r="F5" s="1">
         <v>500</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1">
         <v>100</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>10</v>
@@ -1515,34 +1530,34 @@
         <v>30</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>61</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>75</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>5</v>
@@ -1611,10 +1626,10 @@
         <v>5</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV5" s="1" t="s">
         <v>96</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:50">
@@ -1625,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
@@ -1636,17 +1651,14 @@
       <c r="F6" s="1">
         <v>500</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>100</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>15</v>
@@ -1655,34 +1667,34 @@
         <v>31</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>62</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>5</v>
@@ -1750,11 +1762,11 @@
       <c r="AR6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AS6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>93</v>
+      <c r="AV6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:50">
@@ -1765,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
@@ -1776,17 +1788,17 @@
       <c r="F7" s="1">
         <v>500</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="1">
         <v>100</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>16</v>
@@ -1795,40 +1807,40 @@
         <v>32</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>63</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>77</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>5</v>
@@ -1837,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>5</v>
@@ -1890,11 +1902,11 @@
       <c r="AR7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AW7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX7" s="1" t="s">
-        <v>87</v>
+      <c r="AS7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:50">
@@ -1905,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
@@ -1916,17 +1928,17 @@
       <c r="F8" s="1">
         <v>500</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1">
         <v>100</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>17</v>
@@ -1935,40 +1947,40 @@
         <v>33</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>64</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>78</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>5</v>
@@ -1977,7 +1989,7 @@
         <v>5</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="AB8" s="1" t="s">
         <v>5</v>
@@ -2030,11 +2042,11 @@
       <c r="AR8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AW8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX8" s="1" t="s">
-        <v>87</v>
+      <c r="AS8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT8" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:50">
@@ -2056,14 +2068,14 @@
       <c r="F9" s="1">
         <v>500</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1">
         <v>100</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>10</v>
@@ -2072,37 +2084,37 @@
         <v>18</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>79</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="W9" s="1" t="s">
         <v>5</v>
@@ -2171,10 +2183,10 @@
         <v>5</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:50">
@@ -2185,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
@@ -2196,59 +2208,56 @@
       <c r="F10" s="1">
         <v>500</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>100</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>80</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>5</v>
@@ -2257,7 +2266,7 @@
         <v>5</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="AB10" s="1" t="s">
         <v>5</v>
@@ -2311,10 +2320,10 @@
         <v>5</v>
       </c>
       <c r="AU10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV10" s="1" t="s">
         <v>97</v>
+      </c>
+      <c r="AX10" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:50">
@@ -2336,50 +2345,53 @@
       <c r="F11" s="1">
         <v>500</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="1">
         <v>100</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="W11" s="1" t="s">
         <v>5</v>
@@ -2447,11 +2459,11 @@
       <c r="AR11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AU11" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="AV11" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="AW11" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:50">
@@ -2462,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>5</v>
@@ -2473,14 +2485,14 @@
       <c r="F12" s="1">
         <v>500</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1">
         <v>100</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>10</v>
@@ -2489,43 +2501,43 @@
         <v>21</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>5</v>
@@ -2534,7 +2546,7 @@
         <v>5</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="AB12" s="1" t="s">
         <v>5</v>
@@ -2587,11 +2599,8 @@
       <c r="AR12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AW12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX12" s="1" t="s">
-        <v>87</v>
+      <c r="AU12" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:50">
@@ -2602,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>5</v>
@@ -2613,53 +2622,53 @@
       <c r="F13" s="1">
         <v>500</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="1">
         <v>100</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="W13" s="1" t="s">
         <v>5</v>
@@ -2729,9 +2738,6 @@
       </c>
       <c r="AU13" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="AV13" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:50">
@@ -2742,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>5</v>
@@ -2753,50 +2759,53 @@
       <c r="F14" s="1">
         <v>500</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="1">
         <v>100</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="W14" s="1" t="s">
         <v>5</v>
@@ -2864,11 +2873,11 @@
       <c r="AR14" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="AV14" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="AW14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX14" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:50">
@@ -2879,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>5</v>
@@ -2890,50 +2899,53 @@
       <c r="F15" s="1">
         <v>500</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="1">
         <v>100</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I15" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="W15" s="1" t="s">
         <v>5</v>
@@ -3001,8 +3013,11 @@
       <c r="AR15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AS15" s="1" t="s">
-        <v>91</v>
+      <c r="AU15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX15" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:50">
@@ -3013,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>5</v>
@@ -3024,50 +3039,53 @@
       <c r="F16" s="1">
         <v>500</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="1">
         <v>100</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I16" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="W16" s="1" t="s">
         <v>5</v>
@@ -3135,14 +3153,11 @@
       <c r="AR16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AS16" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT16" s="1" t="s">
-        <v>93</v>
+      <c r="AU16" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:45">
+    <row r="17" spans="1:50">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3150,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>5</v>
@@ -3161,14 +3176,14 @@
       <c r="F17" s="1">
         <v>500</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="1">
         <v>100</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I17" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>10</v>
@@ -3177,7 +3192,7 @@
         <v>26</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>57</v>
@@ -3189,31 +3204,31 @@
         <v>57</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="Y17" s="1" t="s">
         <v>5</v>
@@ -3222,7 +3237,7 @@
         <v>5</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="AB17" s="1" t="s">
         <v>5</v>
@@ -3275,8 +3290,11 @@
       <c r="AR17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AS17" s="1" t="s">
-        <v>91</v>
+      <c r="AU17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX17" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
